--- a/UFTOneDataTable/Default.xlsx
+++ b/UFTOneDataTable/Default.xlsx
@@ -190,7 +190,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -204,9 +206,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -214,10 +214,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -232,15 +232,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,30 +537,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.95" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -582,7 +607,7 @@
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
